--- a/xlsx/剛果民主共和國_intext.xlsx
+++ b/xlsx/剛果民主共和國_intext.xlsx
@@ -29,7 +29,7 @@
     <t>刚果</t>
   </si>
   <si>
-    <t>政策_政策_美國_剛果民主共和國</t>
+    <t>体育运动_体育运动_南非_剛果民主共和國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -3429,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -3864,7 +3864,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
